--- a/Data/EC/NIT-8000108666.xlsx
+++ b/Data/EC/NIT-8000108666.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CD7DC8-A6A3-41FD-8C78-5CDC4C541074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E64791EE-88F7-4B41-BA1E-A8B6097FC78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44892DAC-B3CD-4139-9F53-B2B0A2185CEF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C668A7E6-9E32-491D-BB6F-D9FB58FE7DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="145">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,19 +65,121 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73169010</t>
+  </si>
+  <si>
+    <t>RAFAEL ENRIQUE TAMARA RIOS</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>1129492571</t>
+  </si>
+  <si>
+    <t>EDWIN JAVIER VALENCIA SARMIENTO</t>
+  </si>
+  <si>
+    <t>73154442</t>
+  </si>
+  <si>
+    <t>SANDY ENRIQUE CAMPOS DERAZO</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>73192965</t>
+  </si>
+  <si>
+    <t>JAIRO ALBERTO MENDEZ ANAYA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
     <t>15681611</t>
   </si>
   <si>
     <t>RAFAEL EDUARDO FUENTES RACERO</t>
   </si>
   <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
     <t>1610</t>
   </si>
   <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
+    <t>9177789</t>
+  </si>
+  <si>
+    <t>ARMANDO LUIS FERNANDEZ MOLINARES</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>1047461691</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS MADRID AVENIA</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>1143385481</t>
+  </si>
+  <si>
+    <t>PAULA ANDREA MOLINA FONSECA</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>73568935</t>
+  </si>
+  <si>
+    <t>ANGEL MARIA OLIVEROS PEREIRA</t>
+  </si>
+  <si>
+    <t>2312</t>
   </si>
   <si>
     <t>1051884356</t>
@@ -89,13 +191,82 @@
     <t>1705</t>
   </si>
   <si>
-    <t>1143385481</t>
-  </si>
-  <si>
-    <t>PAULA ANDREA MOLINA FONSECA</t>
-  </si>
-  <si>
-    <t>1812</t>
+    <t>1052072140</t>
+  </si>
+  <si>
+    <t>LINA MARCELA MENDEZ HERRERA</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>85486528</t>
+  </si>
+  <si>
+    <t>LUIS GABRIEL GOMEZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1085037733</t>
+  </si>
+  <si>
+    <t>JAIME BAENA RIVERA</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>39099050</t>
+  </si>
+  <si>
+    <t>NACIRA MARGARITA OLIVERO BUENDIA</t>
   </si>
   <si>
     <t>1079689332</t>
@@ -104,25 +275,139 @@
     <t>LUIS ALBERTO PACHECO MESA</t>
   </si>
   <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1085037733</t>
-  </si>
-  <si>
-    <t>JAIME BAENA RIVERA</t>
-  </si>
-  <si>
-    <t>39099050</t>
-  </si>
-  <si>
-    <t>NACIRA MARGARITA OLIVERO BUENDIA</t>
-  </si>
-  <si>
-    <t>85486528</t>
-  </si>
-  <si>
-    <t>LUIS GABRIEL GOMEZ RAMIREZ</t>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>85484497</t>
+  </si>
+  <si>
+    <t>DANNY SAMIR GARCIA REYES</t>
   </si>
   <si>
     <t>1216970748</t>
@@ -131,43 +416,16 @@
     <t>JAIDER MAYORCA CAPATAZ</t>
   </si>
   <si>
-    <t>85484497</t>
-  </si>
-  <si>
-    <t>DANNY SAMIR GARCIA REYES</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1052072140</t>
-  </si>
-  <si>
-    <t>LINA MARCELA MENDEZ HERRERA</t>
-  </si>
-  <si>
-    <t>1911</t>
+    <t>1193120628</t>
+  </si>
+  <si>
+    <t>JOSE CARLOS COGOLLO MARTINEZ</t>
+  </si>
+  <si>
+    <t>11004296</t>
+  </si>
+  <si>
+    <t>JOSE LUIS HOYOS NIETO</t>
   </si>
   <si>
     <t>1004806310</t>
@@ -176,229 +434,10 @@
     <t>LUIS GUILLERMO FRAGOZO BOLAÃ?O</t>
   </si>
   <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>11004296</t>
-  </si>
-  <si>
-    <t>JOSE LUIS HOYOS NIETO</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>1193120628</t>
-  </si>
-  <si>
-    <t>JOSE CARLOS COGOLLO MARTINEZ</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>1047461691</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS MADRID AVENIA</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
     <t>1005582403</t>
   </si>
   <si>
     <t>CRISTHIAN ANDRES PINEDA ORTEGA</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -812,7 +851,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF577FBD-62CC-02C8-014F-427D4A7881A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEED8A2D-6636-AB4F-C0D0-49739284EF07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,8 +1202,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673193B9-8428-4850-96D5-C8E0F29DFA41}">
-  <dimension ref="B2:J160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179E353F-C841-4F04-BE40-3421733EB1E2}">
+  <dimension ref="B2:J179"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1175,7 +1214,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1188,7 +1227,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1233,7 +1272,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1265,12 +1304,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4319549</v>
+        <v>5114157</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1281,17 +1320,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C13" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F13" s="5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1318,13 +1357,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1341,10 +1380,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27578</v>
+        <v>43800</v>
       </c>
       <c r="G16" s="18">
-        <v>689455</v>
+        <v>1161000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1355,19 +1394,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>27578</v>
+        <v>21333</v>
       </c>
       <c r="G17" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1378,19 +1417,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
-        <v>919</v>
+        <v>113840</v>
       </c>
       <c r="G18" s="18">
-        <v>689455</v>
+        <v>2846000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1407,13 +1446,13 @@
         <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>27578</v>
+        <v>113840</v>
       </c>
       <c r="G19" s="18">
-        <v>689455</v>
+        <v>2846000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1424,19 +1463,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>56940</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1447,19 +1486,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>1898</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1470,19 +1509,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>1898</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1493,19 +1532,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>919</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1516,19 +1555,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1539,19 +1578,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1562,19 +1601,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1585,19 +1624,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1608,19 +1647,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1637,13 +1676,13 @@
         <v>28</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1654,19 +1693,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1677,19 +1716,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1700,19 +1739,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1723,19 +1762,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1752,13 +1791,13 @@
         <v>28</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1769,19 +1808,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1792,19 +1831,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>1170</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1815,19 +1854,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1838,19 +1877,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1861,19 +1900,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1884,19 +1923,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1907,13 +1946,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F41" s="18">
         <v>20833</v>
@@ -1930,16 +1969,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F42" s="18">
-        <v>20833</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1953,13 +1992,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1976,16 +2015,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F44" s="18">
-        <v>20833</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1999,13 +2038,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -2022,13 +2061,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -2045,13 +2084,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -2068,13 +2107,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -2091,13 +2130,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -2114,13 +2153,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -2137,13 +2176,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2160,13 +2199,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2183,13 +2222,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2206,13 +2245,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2229,13 +2268,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2252,13 +2291,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2275,13 +2314,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2298,13 +2337,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2321,13 +2360,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2344,19 +2383,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2367,13 +2406,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2390,13 +2429,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2413,16 +2452,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>20833</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2436,19 +2475,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F64" s="18">
-        <v>22083</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2459,13 +2498,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2482,13 +2521,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2505,13 +2544,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2528,13 +2567,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2551,13 +2590,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2574,13 +2613,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2597,13 +2636,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2620,13 +2659,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2643,13 +2682,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2666,13 +2705,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2689,13 +2728,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2712,13 +2751,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2735,13 +2774,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2758,13 +2797,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2781,13 +2820,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2804,19 +2843,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F80" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2827,13 +2866,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2850,13 +2889,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2873,13 +2912,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2896,13 +2935,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2919,13 +2958,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2942,13 +2981,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2965,13 +3004,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2988,13 +3027,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -3011,13 +3050,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -3034,19 +3073,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="F90" s="18">
-        <v>52680</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>1317000</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3057,13 +3096,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3080,13 +3119,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3103,13 +3142,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3126,13 +3165,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3149,19 +3188,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="F95" s="18">
-        <v>1170</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3172,13 +3211,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3195,13 +3234,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3218,13 +3257,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
@@ -3241,13 +3280,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3264,13 +3303,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3287,13 +3326,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3310,13 +3349,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
@@ -3333,13 +3372,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3356,13 +3395,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="F104" s="18">
         <v>31249</v>
@@ -3379,13 +3418,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3402,13 +3441,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
@@ -3425,13 +3464,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="F107" s="18">
         <v>31249</v>
@@ -3448,13 +3487,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3471,13 +3510,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3494,13 +3533,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="F110" s="18">
         <v>31249</v>
@@ -3517,13 +3556,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3540,13 +3579,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3563,13 +3602,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3586,13 +3625,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
@@ -3609,13 +3648,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3632,13 +3671,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
@@ -3655,13 +3694,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3678,13 +3717,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3701,13 +3740,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3724,13 +3763,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
@@ -3747,13 +3786,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
@@ -3770,13 +3809,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
@@ -3793,13 +3832,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
@@ -3816,13 +3855,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="F124" s="18">
         <v>31249</v>
@@ -3839,19 +3878,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="F125" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3862,19 +3901,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="F126" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3885,13 +3924,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3908,19 +3947,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F128" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3931,13 +3970,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3954,13 +3993,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F130" s="18">
         <v>31249</v>
@@ -3977,19 +4016,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="F131" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4000,13 +4039,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
@@ -4023,13 +4062,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -4046,13 +4085,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F134" s="18">
         <v>31249</v>
@@ -4069,13 +4108,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -4092,13 +4131,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -4115,13 +4154,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4138,13 +4177,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -4161,13 +4200,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4184,13 +4223,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4207,13 +4246,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4230,13 +4269,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4253,13 +4292,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4276,13 +4315,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4299,16 +4338,16 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="F145" s="18">
-        <v>31249</v>
+        <v>20833</v>
       </c>
       <c r="G145" s="18">
         <v>781242</v>
@@ -4322,13 +4361,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4345,13 +4384,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4368,13 +4407,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4391,13 +4430,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4414,13 +4453,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
@@ -4437,13 +4476,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4460,13 +4499,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4483,13 +4522,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
@@ -4502,56 +4541,493 @@
       <c r="J153" s="20"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E154" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F154" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G154" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H154" s="25"/>
-      <c r="I154" s="25"/>
-      <c r="J154" s="26"/>
+      <c r="B154" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F154" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G154" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="20"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B155" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F155" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G155" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="20"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B156" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F156" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G156" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="20"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B157" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F157" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G157" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="20"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B158" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D158" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F158" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G158" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="20"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B159" s="32" t="s">
+      <c r="B159" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F159" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G159" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="20"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B160" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F160" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G160" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="20"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B161" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F161" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G161" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="20"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B162" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D162" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F162" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G162" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="20"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B163" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F163" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G163" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="20"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B164" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F164" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G164" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="20"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B165" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F165" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G165" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="20"/>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B166" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F166" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G166" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="20"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B167" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F167" s="18">
+        <v>52680</v>
+      </c>
+      <c r="G167" s="18">
+        <v>1317000</v>
+      </c>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="20"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B168" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F168" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G168" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="20"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B169" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C159" s="32"/>
-      <c r="H159" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B160" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C160" s="32"/>
-      <c r="H160" s="1" t="s">
+      <c r="D169" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
+      <c r="E169" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F169" s="18">
+        <v>22083</v>
+      </c>
+      <c r="G169" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="20"/>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B170" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F170" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G170" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="20"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B171" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F171" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G171" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="20"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B172" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F172" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G172" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="20"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B173" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E173" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F173" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G173" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25"/>
+      <c r="J173" s="26"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B178" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C178" s="32"/>
+      <c r="H178" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B179" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C179" s="32"/>
+      <c r="H179" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="H160:J160"/>
-    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="H179:J179"/>
+    <mergeCell ref="H178:J178"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
